--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>№</t>
   </si>
@@ -31,12 +31,12 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Медведев Александр</t>
+  </si>
+  <si>
     <t>Леонтьев Дмитрий</t>
   </si>
   <si>
-    <t>Медведев Александр</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t>321426</t>
   </si>
   <si>
+    <t>369107</t>
+  </si>
+  <si>
     <t>328905</t>
   </si>
   <si>
-    <t>369107</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -145,40 +145,46 @@
     <t>22</t>
   </si>
   <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
     <t>1+, 2-</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>8-</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>2+, 1-</t>
-  </si>
-  <si>
     <t>1+, 3-</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
+    <t>1-</t>
+  </si>
+  <si>
     <t>357</t>
-  </si>
-  <si>
-    <t>1-</t>
   </si>
   <si>
     <t>1+, 4-</t>
@@ -700,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -715,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -756,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -771,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -808,11 +814,17 @@
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -822,11 +834,17 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -836,6 +854,9 @@
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
@@ -844,6 +865,9 @@
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
@@ -852,6 +876,9 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
@@ -860,22 +887,31 @@
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>39</v>
@@ -889,69 +925,84 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>42</v>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -55,6 +55,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>417223</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>321540</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>417133</t>
   </si>
   <si>
@@ -181,7 +181,7 @@
     <t>173</t>
   </si>
   <si>
-    <t>1-</t>
+    <t>2-</t>
   </si>
   <si>
     <t>357</t>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>№</t>
   </si>
@@ -31,21 +31,24 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Провалинский Владимир</t>
+  </si>
+  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Провалинский Владимир</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -85,21 +85,24 @@
     <t>321426</t>
   </si>
   <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
-    <t>328905</t>
+    <t>369588</t>
   </si>
   <si>
     <t>321423</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>415632</t>
   </si>
   <si>
+    <t>371742</t>
+  </si>
+  <si>
     <t>415486</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>416762</t>
   </si>
   <si>
-    <t>371742</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
@@ -151,6 +151,9 @@
     <t>48</t>
   </si>
   <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
@@ -175,7 +178,7 @@
     <t>1+, 2-</t>
   </si>
   <si>
-    <t>1+, 3-</t>
+    <t>2+, 5-</t>
   </si>
   <si>
     <t>173</t>
@@ -709,16 +712,16 @@
         <v>9</v>
       </c>
       <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -765,16 +768,16 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -820,7 +823,10 @@
       <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -840,7 +846,10 @@
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -857,32 +866,41 @@
       <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
@@ -891,29 +909,35 @@
         <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -925,35 +949,41 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>54</v>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
@@ -964,24 +994,30 @@
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
@@ -989,7 +1025,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>40</v>
@@ -997,7 +1033,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -31,15 +31,21 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Леонтьв Дмитрий</t>
   </si>
   <si>
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Казаков Максим</t>
+  </si>
+  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +64,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Казаков Максим</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,9 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321540</t>
+  </si>
+  <si>
     <t>369588</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,13 +118,7 @@
     <t>417223</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>415633</t>
-  </si>
-  <si>
-    <t>321540</t>
   </si>
   <si>
     <t>417133</t>
@@ -718,19 +718,19 @@
         <v>7</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>4</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>1</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -826,10 +826,10 @@
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -849,10 +849,10 @@
       <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -914,10 +914,10 @@
       <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -937,10 +937,10 @@
       <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -977,7 +977,7 @@
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1008,10 +1008,10 @@
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>60</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>№</t>
   </si>
@@ -37,15 +37,15 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,15 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
     <t>369588</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,13 +112,13 @@
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>352865</t>
   </si>
   <si>
     <t>417223</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>417133</t>
@@ -718,13 +718,13 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>4</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -826,7 +826,10 @@
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -849,7 +852,10 @@
       <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -869,6 +875,9 @@
       <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
@@ -883,6 +892,9 @@
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
@@ -914,7 +926,7 @@
       <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -937,7 +949,10 @@
       <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -977,7 +992,7 @@
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1008,7 +1023,7 @@
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="4" t="s">

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -52,15 +52,15 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -106,13 +106,13 @@
     <t>415632</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
     <t>415486</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>352865</t>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -40,27 +40,27 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -94,25 +94,25 @@
     <t>416762</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
     <t>415632</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>415633</t>
   </si>
   <si>
     <t>371742</t>
-  </si>
-  <si>
-    <t>415486</t>
   </si>
   <si>
     <t>352865</t>
@@ -721,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -829,7 +829,7 @@
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -855,7 +855,7 @@
       <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -926,7 +926,7 @@
       <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -952,7 +952,7 @@
       <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -992,7 +992,7 @@
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="4" t="s">

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>№</t>
   </si>
@@ -28,33 +28,33 @@
     <t>Вахитова Екатерина</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -82,33 +82,33 @@
     <t>262625</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
     <t>416762</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321540</t>
   </si>
   <si>
     <t>321423</t>
   </si>
   <si>
-    <t>415632</t>
-  </si>
-  <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
@@ -157,6 +157,9 @@
     <t>51</t>
   </si>
   <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -166,40 +169,40 @@
     <t>8-</t>
   </si>
   <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>2+, 5-</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
     <t>1+, 6-</t>
   </si>
   <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>2+, 1-</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>2+, 5-</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>2-</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>3-</t>
+    <t>5-</t>
   </si>
   <si>
     <t>793</t>
@@ -709,28 +712,28 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -771,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -818,10 +821,10 @@
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
@@ -830,10 +833,13 @@
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -843,9 +849,6 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
@@ -853,12 +856,12 @@
         <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -869,13 +872,13 @@
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -886,51 +889,51 @@
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -941,21 +944,21 @@
         <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -969,10 +972,10 @@
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -983,17 +986,17 @@
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1003,13 +1006,13 @@
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1020,40 +1023,40 @@
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>60</v>
+      <c r="G15" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -46,6 +46,9 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>416762</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>371742</t>
-  </si>
-  <si>
-    <t>352865</t>
   </si>
   <si>
     <t>417223</t>
@@ -730,10 +730,10 @@
         <v>7</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>5</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -838,7 +838,7 @@
       <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
       <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -878,7 +878,7 @@
       <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
       <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
       <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="3" t="s">

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>№</t>
   </si>
@@ -31,18 +31,18 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>Казаков Максим</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>430719</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>328905</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -109,12 +109,12 @@
     <t>321540</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>371742</t>
   </si>
   <si>
@@ -199,12 +199,12 @@
     <t>623</t>
   </si>
   <si>
+    <t>5-</t>
+  </si>
+  <si>
     <t>1+, 6-</t>
   </si>
   <si>
-    <t>5-</t>
-  </si>
-  <si>
     <t>793</t>
   </si>
   <si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>941</t>
+  </si>
+  <si>
+    <t>1-</t>
   </si>
 </sst>
 </file>
@@ -715,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>11</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
       </c>
       <c r="I3">
         <v>7</v>
@@ -768,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -824,16 +827,16 @@
         <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>40</v>
@@ -850,13 +853,13 @@
         <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>42</v>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>39</v>
@@ -872,10 +875,10 @@
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -892,7 +895,7 @@
       <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -909,10 +912,10 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -923,14 +926,14 @@
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>49</v>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>39</v>
@@ -947,13 +950,13 @@
         <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>44</v>
@@ -972,7 +975,7 @@
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -987,12 +990,12 @@
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -1006,10 +1009,10 @@
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -1026,10 +1029,10 @@
       <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1041,7 +1044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -1049,14 +1052,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
   <si>
     <t>№</t>
   </si>
@@ -34,15 +34,18 @@
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -88,15 +88,18 @@
     <t>369588</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>328905</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
@@ -109,9 +112,6 @@
     <t>321540</t>
   </si>
   <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -190,6 +190,9 @@
     <t>357</t>
   </si>
   <si>
+    <t>1-</t>
+  </si>
+  <si>
     <t>1+, 4-</t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t>941</t>
-  </si>
-  <si>
-    <t>1-</t>
   </si>
 </sst>
 </file>
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>9</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
       </c>
       <c r="H3">
         <v>11</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>7</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>5</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -838,10 +838,10 @@
       <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -855,16 +855,16 @@
       <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -875,13 +875,13 @@
       <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -898,10 +898,10 @@
       <c r="H8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -929,13 +929,13 @@
       <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -952,16 +952,16 @@
       <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="Q11" s="3" t="s">
@@ -978,7 +978,7 @@
       <c r="H12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -989,39 +989,42 @@
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>44</v>
@@ -1030,39 +1033,39 @@
         <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -25,27 +25,27 @@
     <t>Шестаков Вячеслав</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Вахитова Екатерина</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
+    <t>Леонтьв Дмитрий</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
-  </si>
-  <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -79,27 +79,27 @@
     <t>263178</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>262625</t>
   </si>
   <si>
-    <t>430719</t>
-  </si>
-  <si>
     <t>369588</t>
   </si>
   <si>
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>328905</t>
-  </si>
-  <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -131,90 +131,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2+, 2-</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1+, 3-</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>8-</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>2+, 1-</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>2+, 5-</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>2-</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>1+, 4-</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>5-</t>
-  </si>
-  <si>
-    <t>1+, 6-</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>941</t>
   </si>
 </sst>
 </file>
@@ -246,24 +162,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,14 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -709,37 +611,37 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -754,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -771,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -789,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -814,263 +716,10 @@
       </c>
       <c r="R4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R18"/>
+  <autoFilter ref="A1:R4"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -1089,20 +738,6 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$18</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +131,96 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>3+, 4-</t>
+  </si>
+  <si>
+    <t>3+, 6-</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>941</t>
   </si>
 </sst>
 </file>
@@ -162,12 +252,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,12 +284,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -611,37 +715,37 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -656,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -670,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -691,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -718,8 +822,267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R4"/>
+  <autoFilter ref="A1:R18"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -738,6 +1101,20 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
+    <hyperlink ref="A5" r:id="rId18"/>
+    <hyperlink ref="A6" r:id="rId19"/>
+    <hyperlink ref="A7" r:id="rId20"/>
+    <hyperlink ref="A8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$U$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>№</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Вахитова Екатерина</t>
+    <t>Екатерина Юрьевна</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
@@ -40,7 +40,7 @@
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
+    <t>Леонтьев Дмитрий</t>
   </si>
   <si>
     <t>Коляда Вадим</t>
@@ -73,7 +73,16 @@
     <t>Глушков Артём</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Грачёв Ромен</t>
+  </si>
+  <si>
+    <t>Костюнин Егор</t>
+  </si>
+  <si>
+    <t>Урцегов Артём</t>
+  </si>
+  <si>
+    <t>Acmp</t>
   </si>
   <si>
     <t>263178</t>
@@ -127,6 +136,57 @@
     <t>418688</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>slavashestakov2005</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
+    <t>Vadlm</t>
+  </si>
+  <si>
+    <t>Sasha_Medvedev</t>
+  </si>
+  <si>
+    <t>AndreBc</t>
+  </si>
+  <si>
+    <t>degterevvva</t>
+  </si>
+  <si>
+    <t>044s4</t>
+  </si>
+  <si>
+    <t>ABRAMOVICHH</t>
+  </si>
+  <si>
+    <t>art3m_glushkov</t>
+  </si>
+  <si>
+    <t>Romafka</t>
+  </si>
+  <si>
+    <t>kjuby</t>
+  </si>
+  <si>
+    <t>AbramovichLinkoln</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -142,28 +202,37 @@
     <t>1+, 1-</t>
   </si>
   <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>1+</t>
   </si>
   <si>
     <t>2+, 1-</t>
   </si>
   <si>
+    <t>2+, 2-</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>2+, 2-</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
     <t>1+, 3-</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>2+</t>
+    <t>1-</t>
   </si>
   <si>
     <t>59</t>
@@ -172,7 +241,10 @@
     <t>79</t>
   </si>
   <si>
-    <t>8-</t>
+    <t>1+, 10-</t>
+  </si>
+  <si>
+    <t>2+, 3-</t>
   </si>
   <si>
     <t>148</t>
@@ -184,31 +256,34 @@
     <t>3+, 6-</t>
   </si>
   <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
     <t>173</t>
   </si>
   <si>
+    <t>2+, 11-</t>
+  </si>
+  <si>
     <t>2-</t>
   </si>
   <si>
     <t>357</t>
   </si>
   <si>
-    <t>1-</t>
-  </si>
-  <si>
     <t>1+, 4-</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>542</t>
   </si>
   <si>
     <t>623</t>
   </si>
   <si>
-    <t>5-</t>
+    <t>1+, 16-</t>
+  </si>
+  <si>
+    <t>1+, 15-</t>
   </si>
   <si>
     <t>1+, 6-</t>
@@ -586,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -595,10 +670,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,436 +728,636 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>63</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>62</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="J13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
+      <c r="G14" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>63</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>60</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R18"/>
+  <autoFilter ref="A1:U19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -1101,20 +1376,43 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="S2" r:id="rId18"/>
+    <hyperlink ref="T2" r:id="rId19"/>
+    <hyperlink ref="U2" r:id="rId20"/>
+    <hyperlink ref="B3" r:id="rId21"/>
+    <hyperlink ref="C3" r:id="rId22"/>
+    <hyperlink ref="D3" r:id="rId23"/>
+    <hyperlink ref="E3" r:id="rId24"/>
+    <hyperlink ref="F3" r:id="rId25"/>
+    <hyperlink ref="G3" r:id="rId26"/>
+    <hyperlink ref="H3" r:id="rId27"/>
+    <hyperlink ref="I3" r:id="rId28"/>
+    <hyperlink ref="J3" r:id="rId29"/>
+    <hyperlink ref="K3" r:id="rId30"/>
+    <hyperlink ref="L3" r:id="rId31"/>
+    <hyperlink ref="M3" r:id="rId32"/>
+    <hyperlink ref="N3" r:id="rId33"/>
+    <hyperlink ref="O3" r:id="rId34"/>
+    <hyperlink ref="P3" r:id="rId35"/>
+    <hyperlink ref="Q3" r:id="rId36"/>
+    <hyperlink ref="R3" r:id="rId37"/>
+    <hyperlink ref="S3" r:id="rId38"/>
+    <hyperlink ref="T3" r:id="rId39"/>
+    <hyperlink ref="U3" r:id="rId40"/>
+    <hyperlink ref="A6" r:id="rId41"/>
+    <hyperlink ref="A7" r:id="rId42"/>
+    <hyperlink ref="A8" r:id="rId43"/>
+    <hyperlink ref="A9" r:id="rId44"/>
+    <hyperlink ref="A10" r:id="rId45"/>
+    <hyperlink ref="A11" r:id="rId46"/>
+    <hyperlink ref="A12" r:id="rId47"/>
+    <hyperlink ref="A13" r:id="rId48"/>
+    <hyperlink ref="A14" r:id="rId49"/>
+    <hyperlink ref="A15" r:id="rId50"/>
+    <hyperlink ref="A16" r:id="rId51"/>
+    <hyperlink ref="A17" r:id="rId52"/>
+    <hyperlink ref="A18" r:id="rId53"/>
+    <hyperlink ref="A19" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.10.13.xlsx
+++ b/groups/22-23/tasks_results/22.10.13.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t>№</t>
   </si>
@@ -271,25 +271,25 @@
     <t>1+, 4-</t>
   </si>
   <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>1+, 16-</t>
+  </si>
+  <si>
+    <t>1+, 15-</t>
+  </si>
+  <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
     <t>3-</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>1+, 16-</t>
-  </si>
-  <si>
-    <t>1+, 15-</t>
-  </si>
-  <si>
-    <t>1+, 6-</t>
-  </si>
-  <si>
-    <t>793</t>
   </si>
   <si>
     <t>911</t>
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1104,6 +1104,9 @@
       <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>71</v>
       </c>
@@ -1255,8 +1258,8 @@
       <c r="F14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>84</v>
+      <c r="G14" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>83</v>
@@ -1270,7 +1273,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>63</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>69</v>
@@ -1302,13 +1305,13 @@
         <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>81</v>
@@ -1316,7 +1319,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>62</v>
@@ -1325,7 +1328,7 @@
         <v>63</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9">
